--- a/Resources/Set Bonus for Spike.xlsx
+++ b/Resources/Set Bonus for Spike.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\Unity\Projects\unity-kings-of-the-beach\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7842D55A-291B-4023-8CEB-ED5D916622ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8B4C85-955E-419D-92C0-AA2BBBDBB567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="2263" windowWidth="25989" windowHeight="10594" xr2:uid="{CC06AFE9-44C6-489A-8EE4-1B9D91154CC7}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{CC06AFE9-44C6-489A-8EE4-1B9D91154CC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Distance</t>
   </si>
@@ -58,13 +58,16 @@
   <si>
     <t>mph</t>
   </si>
+  <si>
+    <t>clamp to 0-50?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -97,7 +100,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1823,11 +1826,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DEA13E-050C-488A-B036-514181621061}">
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6072,6 +6075,11 @@
         <v>9.1163690000000006E-2</v>
       </c>
     </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Resources/Set Bonus for Spike.xlsx
+++ b/Resources/Set Bonus for Spike.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\Unity\Projects\unity-kings-of-the-beach\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8B4C85-955E-419D-92C0-AA2BBBDBB567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0A3FE9-4B73-4F49-8489-CB5E51BF3C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{CC06AFE9-44C6-489A-8EE4-1B9D91154CC7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Distance</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>clamp to 0-50?</t>
+  </si>
+  <si>
+    <t>or figure out how to adjust with the real range and an adjustment range</t>
   </si>
 </sst>
 </file>
@@ -1826,11 +1829,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DEA13E-050C-488A-B036-514181621061}">
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6080,6 +6083,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Resources/Set Bonus for Spike.xlsx
+++ b/Resources/Set Bonus for Spike.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\Unity\Projects\unity-kings-of-the-beach\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0A3FE9-4B73-4F49-8489-CB5E51BF3C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA7983E-C820-4FAB-A0AB-9A6BAFC42943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{CC06AFE9-44C6-489A-8EE4-1B9D91154CC7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Distance</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>or figure out how to adjust with the real range and an adjustment range</t>
+  </si>
+  <si>
+    <t>I don't know</t>
   </si>
 </sst>
 </file>
@@ -1829,11 +1832,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DEA13E-050C-488A-B036-514181621061}">
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6088,6 +6091,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Resources/Set Bonus for Spike.xlsx
+++ b/Resources/Set Bonus for Spike.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\Unity\Projects\unity-kings-of-the-beach\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA7983E-C820-4FAB-A0AB-9A6BAFC42943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41759271-4F93-43F6-86D2-700CAE6F042B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{CC06AFE9-44C6-489A-8EE4-1B9D91154CC7}"/>
   </bookViews>
@@ -1512,6 +1512,364 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10933762" cy="5945987"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCAE6D2-0DAD-4AB4-83F3-3E1AB4471D7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18690771"/>
+          <a:ext cx="10933762" cy="5945987"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Suggestion from Claude:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>private void TrySpike() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    float jumpDuration = ai.JumpFrames / ai.AnimationFrameRate;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    float spikeDuration = ai.ActionFrames / ai.AnimationFrameRate;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    float optimalTime = spikeTime - jumpDuration - spikeDuration / 2;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    // Create a timing window around the optimal time</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    float timingWindow = ai.BallInfo.SkillValues.SkillToValue(ai.Skills.SpikeSkill, ai.BallInfo.SkillValues.SpikeTimingWindow);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    if (ai.BallInfo.TimeSinceLastHit &gt;= optimalTime - timingWindow &amp;&amp; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        ai.BallInfo.TimeSinceLastHit &lt;= optimalTime + timingWindow &amp;&amp; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        spikeTime &gt;= 0) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        ai.PerformJump();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        isSpiking = true;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        // Calculate timing variance similar to human system</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        // This should be a small value, similar to how human normalizedTime - 1 works</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        float timingDeviation = (ai.BallInfo.TimeSinceLastHit - optimalTime) / timingWindow;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        // Apply the same penalty calculation as humans</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        float window = ai.BallInfo.SkillValues.SkillToValue(ai.Skills.SpikeSkill, ai.BallInfo.SkillValues.SpikeTimingWindow);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        float penalty = timingDeviation * window * spikeWindowPenalty;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        ai.SpikeSpeedPenalty = timingDeviation * window; // This should be much smaller now</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        Debug.Log($"AI Timing: deviation={timingDeviation:F3}, window={window:F3}, penalty={penalty:F3}");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>The key changes:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>timingDeviation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> is normalized to [-1, 1] range (perfect timing = 0)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>Penalty calculation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> mirrors the human system more closely</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>Values should be much smaller</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> since timingDeviation is constrained</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>This should give you penalties in a reasonable range (similar to what humans experience) rather than the 0.99+ values you're seeing. </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1835,8 +2193,8 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Resources/Set Bonus for Spike.xlsx
+++ b/Resources/Set Bonus for Spike.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\Unity\Projects\unity-kings-of-the-beach\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41759271-4F93-43F6-86D2-700CAE6F042B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB524B2-E619-4BF8-A7E4-2724FA7F90DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{CC06AFE9-44C6-489A-8EE4-1B9D91154CC7}"/>
   </bookViews>
@@ -1519,7 +1519,7 @@
       <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10933762" cy="5945987"/>
+    <xdr:ext cx="10425931" cy="3523465"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="TextBox 2">
@@ -1534,7 +1534,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="18690771"/>
-          <a:ext cx="10933762" cy="5945987"/>
+          <a:ext cx="10425931" cy="3523465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1563,7 +1563,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Suggestion from Claude:</a:t>
+            <a:t>New solution from Claude:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1575,7 +1575,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>private void TrySpike() {</a:t>
+            <a:t>float optimalTime = spikeTime - jumpDuration - spikeDuration / 2;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1584,30 +1584,90 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>    float jumpDuration = ai.JumpFrames / ai.AnimationFrameRate;</a:t>
+            <a:t>if (ai.BallInfo.TimeSinceLastHit &gt;= optimalTime &amp;&amp; spikeTime &gt;= 0) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>If baseTimingError is ~0.995, that means the AI is waiting way too long before jumping. The timing should be much tighter.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US"/>
+            <a:t>Instead of trying to normalize a huge timing error, we should fix the AI to jump closer to the optimal time. Maybe something like:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US">
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>    float spikeDuration = ai.ActionFrames / ai.AnimationFrameRate;</a:t>
+            <a:t>// Add small random variance around optimal time (like ±0.1 seconds max)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US">
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>    float optimalTime = spikeTime - jumpDuration - spikeDuration / 2;</a:t>
+            <a:t>float timingVariance = Random.Range(-0.05f, 0.05f); // Much smaller range</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>float targetTime = optimalTime + timingVariance;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>if (ai.BallInfo.TimeSinceLastHit &gt;= targetTime &amp;&amp; spikeTime &gt;= 0) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    ai.PerformJump();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    isSpiking = true;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US">
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
@@ -1616,254 +1676,47 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US">
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>    // Create a timing window around the optimal time</a:t>
+            <a:t>    // Now the timing error should be small (like human system)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US">
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>    float timingWindow = ai.BallInfo.SkillValues.SkillToValue(ai.Skills.SpikeSkill, ai.BallInfo.SkillValues.SpikeTimingWindow);</a:t>
+            <a:t>    float actualTimingError = ai.BallInfo.TimeSinceLastHit - optimalTime; // Should be ~0.05 or less</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US">
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>    </a:t>
+            <a:t>    float window = ai.BallInfo.SkillValues.SkillToValue(ai.Skills.SpikeSkill, ai.BallInfo.SkillValues.SpikeTimingWindow);</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US">
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>    if (ai.BallInfo.TimeSinceLastHit &gt;= optimalTime - timingWindow &amp;&amp; </a:t>
+            <a:t>    ai.SpikeSpeedPenalty = actualTimingError * window;</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        ai.BallInfo.TimeSinceLastHit &lt;= optimalTime + timingWindow &amp;&amp; </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        spikeTime &gt;= 0) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        ai.PerformJump();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        isSpiking = true;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        // Calculate timing variance similar to human system</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        // This should be a small value, similar to how human normalizedTime - 1 works</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        float timingDeviation = (ai.BallInfo.TimeSinceLastHit - optimalTime) / timingWindow;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        // Apply the same penalty calculation as humans</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        float window = ai.BallInfo.SkillValues.SkillToValue(ai.Skills.SpikeSkill, ai.BallInfo.SkillValues.SpikeTimingWindow);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        float penalty = timingDeviation * window * spikeWindowPenalty;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        ai.SpikeSpeedPenalty = timingDeviation * window; // This should be much smaller now</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        Debug.Log($"AI Timing: deviation={timingDeviation:F3}, window={window:F3}, penalty={penalty:F3}");</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>    }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US">
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>The key changes:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" b="1"/>
-            <a:t>timingDeviation</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> is normalized to [-1, 1] range (perfect timing = 0)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" b="1"/>
-            <a:t>Penalty calculation</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> mirrors the human system more closely</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" b="1"/>
-            <a:t>Values should be much smaller</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> since timingDeviation is constrained</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>This should give you penalties in a reasonable range (similar to what humans experience) rather than the 0.99+ values you're seeing. </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2193,8 +2046,8 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Resources/Set Bonus for Spike.xlsx
+++ b/Resources/Set Bonus for Spike.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\Unity\Projects\unity-kings-of-the-beach\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB524B2-E619-4BF8-A7E4-2724FA7F90DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3821AB90-A052-4779-8265-90F8A9FCA812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{CC06AFE9-44C6-489A-8EE4-1B9D91154CC7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Distance</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>I don't know</t>
+  </si>
+  <si>
+    <t>Next up:  implement &amp; test!</t>
   </si>
 </sst>
 </file>
@@ -2043,11 +2046,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DEA13E-050C-488A-B036-514181621061}">
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6307,6 +6310,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Resources/Set Bonus for Spike.xlsx
+++ b/Resources/Set Bonus for Spike.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\Unity\Projects\unity-kings-of-the-beach\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3821AB90-A052-4779-8265-90F8A9FCA812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70A9187-0119-48FC-AF59-74AE0E3BFAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{CC06AFE9-44C6-489A-8EE4-1B9D91154CC7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Distance</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Next up:  implement &amp; test!</t>
+  </si>
+  <si>
+    <t>Still no testing done.  Not into it.</t>
   </si>
 </sst>
 </file>
@@ -2046,11 +2049,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DEA13E-050C-488A-B036-514181621061}">
-  <dimension ref="A1:L122"/>
+  <dimension ref="A1:L123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A123" sqref="A123"/>
+      <selection pane="bottomLeft" activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6315,6 +6318,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Resources/Set Bonus for Spike.xlsx
+++ b/Resources/Set Bonus for Spike.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\Unity\Projects\unity-kings-of-the-beach\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70A9187-0119-48FC-AF59-74AE0E3BFAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00757E8-E77D-4EE4-AAD3-B2FCBD1D25AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{CC06AFE9-44C6-489A-8EE4-1B9D91154CC7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Distance</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Still no testing done.  Not into it.</t>
+  </si>
+  <si>
+    <t>I can't do this anymore</t>
   </si>
 </sst>
 </file>
@@ -2049,11 +2052,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DEA13E-050C-488A-B036-514181621061}">
-  <dimension ref="A1:L123"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A124" sqref="A124"/>
+      <selection pane="bottomLeft" activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6323,6 +6326,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Resources/Set Bonus for Spike.xlsx
+++ b/Resources/Set Bonus for Spike.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\Unity\Projects\unity-kings-of-the-beach\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00757E8-E77D-4EE4-AAD3-B2FCBD1D25AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F24D41A-F53B-4A22-8EC2-6FE22A616D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{CC06AFE9-44C6-489A-8EE4-1B9D91154CC7}"/>
+    <workbookView xWindow="10346" yWindow="6943" windowWidth="22277" windowHeight="10594" xr2:uid="{CC06AFE9-44C6-489A-8EE4-1B9D91154CC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Distance</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>I can't do this anymore</t>
+  </si>
+  <si>
+    <t>almost there</t>
   </si>
 </sst>
 </file>
@@ -2052,11 +2055,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DEA13E-050C-488A-B036-514181621061}">
-  <dimension ref="A1:L124"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A125" sqref="A125"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6331,6 +6334,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Resources/Set Bonus for Spike.xlsx
+++ b/Resources/Set Bonus for Spike.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\Unity\Projects\unity-kings-of-the-beach\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F24D41A-F53B-4A22-8EC2-6FE22A616D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA97FAE-48D6-4238-8605-28844525212A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10346" yWindow="6943" windowWidth="22277" windowHeight="10594" xr2:uid="{CC06AFE9-44C6-489A-8EE4-1B9D91154CC7}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="1" xr2:uid="{CC06AFE9-44C6-489A-8EE4-1B9D91154CC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Distance</t>
   </si>
@@ -79,6 +80,30 @@
   <si>
     <t>almost there</t>
   </si>
+  <si>
+    <t>time since last hit</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>optimal time</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>spike speed penalty</t>
+  </si>
+  <si>
+    <t>actual timing error</t>
+  </si>
 </sst>
 </file>
 
@@ -116,9 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2057,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DEA13E-050C-488A-B036-514181621061}">
   <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
@@ -6343,4 +6369,82 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D8B855-822A-4593-875E-B7215605D3B7}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.84375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.84375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0.92250149999999997</v>
+      </c>
+      <c r="C2">
+        <v>0.97702040000000001</v>
+      </c>
+      <c r="E2">
+        <f>A2-C2</f>
+        <v>-5.4518900000000037E-2</v>
+      </c>
+      <c r="G2">
+        <v>5.5555559999999997E-2</v>
+      </c>
+      <c r="I2">
+        <f>ABS(E2)*G2</f>
+        <v>3.0288280200840021E-3</v>
+      </c>
+      <c r="J2">
+        <f>A2-C2</f>
+        <v>-5.4518900000000037E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>